--- a/data/trans_dic/P1432-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1432-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0107911249313628</v>
+        <v>0.009862498268906856</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.005816592629687088</v>
+        <v>0.005765675454376941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0008417925817513104</v>
+        <v>0.0008413052979262553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0206056622168657</v>
+        <v>0.02007391140944489</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01396725309717371</v>
+        <v>0.01455585702548818</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01162798643423925</v>
+        <v>0.01190993124165864</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01896571173402139</v>
+        <v>0.01879650932506919</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01127978519967776</v>
+        <v>0.0117415775126336</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008139022810412993</v>
+        <v>0.007925910464208768</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03357457157194854</v>
+        <v>0.03228528859597985</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02135635851232093</v>
+        <v>0.0200270270298868</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.008036213250415225</v>
+        <v>0.009058907608741439</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04301057829082862</v>
+        <v>0.04233683339856527</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03189019180531726</v>
+        <v>0.03151202799910684</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02855221223051876</v>
+        <v>0.02811822052024265</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03613572696741207</v>
+        <v>0.03611775981045721</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02282022807290342</v>
+        <v>0.02298321259135901</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01771308767142001</v>
+        <v>0.01753775030195216</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007854195689322017</v>
+        <v>0.007458508732829318</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0009811199638961174</v>
+        <v>0.0009860466951941242</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0009765087267949357</v>
+        <v>0.0009759944571762119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004673923702404657</v>
+        <v>0.004473836790515683</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.006713839860826923</v>
+        <v>0.006834531964962976</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.006482282459774071</v>
+        <v>0.006718109902702272</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007349330936184646</v>
+        <v>0.007724447717735694</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005068961996479613</v>
+        <v>0.004978344510132743</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.004982337734831536</v>
+        <v>0.004771608279512266</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02230258587092794</v>
+        <v>0.02245867816400263</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01869467743085547</v>
+        <v>0.01372477845559501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009626282989589462</v>
+        <v>0.01000468069721919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0173670525893852</v>
+        <v>0.01804058060691893</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02105471608095394</v>
+        <v>0.02087356475266195</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02106616914538007</v>
+        <v>0.02179859479025404</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01719689397248907</v>
+        <v>0.01698339122418834</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01444771251302104</v>
+        <v>0.01428508964069211</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01314408786219786</v>
+        <v>0.01389825560954258</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003355969673781918</v>
+        <v>0.003205425539920233</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001250570073350707</v>
+        <v>0.001178818247953614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004142275596293237</v>
+        <v>0.004344178064037379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002221728177251323</v>
+        <v>0.002748284934175349</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.006160299522871251</v>
+        <v>0.006153204607608499</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.003646423612164899</v>
+        <v>0.00388249672184297</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.004811234103709131</v>
+        <v>0.004852595301641974</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003249730736129788</v>
+        <v>0.003276687263213585</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01467014334101404</v>
+        <v>0.01338885164277021</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01124083615966418</v>
+        <v>0.01114286672357722</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01658107293687284</v>
+        <v>0.01766569943059988</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01262595552106163</v>
+        <v>0.01293769608773158</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02513801066261538</v>
+        <v>0.0241245673221299</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01325849120378886</v>
+        <v>0.01210597184178866</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01102696654113322</v>
+        <v>0.01146967255101936</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01464054442052187</v>
+        <v>0.01533439649623044</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01147350908637517</v>
+        <v>0.01220373323129131</v>
       </c>
     </row>
     <row r="13">
@@ -1005,28 +1005,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001638188582168028</v>
+        <v>0.001670194188496008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001585689151123086</v>
+        <v>0.001598840977496574</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.006000729978493133</v>
+        <v>0.005935557233725824</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007008677758884198</v>
+        <v>0.007107743549920861</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0121200635375383</v>
+        <v>0.01084110269870854</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003607215338426813</v>
+        <v>0.003367939256562713</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00564921339574075</v>
+        <v>0.005750553350236574</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.00742208261810716</v>
+        <v>0.007835506574883497</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0141058522398599</v>
+        <v>0.01271833827713341</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01631440670526246</v>
+        <v>0.01570024740151333</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01522915966776759</v>
+        <v>0.01571475393584764</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03773260899402389</v>
+        <v>0.03773967075979777</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03214772105502314</v>
+        <v>0.03319688250660833</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04408658136863736</v>
+        <v>0.04452464770307225</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0177907142382551</v>
+        <v>0.01764249978147087</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01945726474281237</v>
+        <v>0.01945664646300665</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02463819648232244</v>
+        <v>0.02473667367332998</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.007890896219266487</v>
+        <v>0.007864288624791896</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003935006394488801</v>
+        <v>0.00423058383676659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003175720297317097</v>
+        <v>0.003207788402032022</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01125814755203933</v>
+        <v>0.01117413368683155</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0120682141604394</v>
+        <v>0.01192148611539071</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01068355229860572</v>
+        <v>0.01052331005664684</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01070399534429434</v>
+        <v>0.01031638462103209</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.008880050739314449</v>
+        <v>0.009007804320825329</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.007439340016646325</v>
+        <v>0.007594140613817683</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01479931304058094</v>
+        <v>0.01507286626131337</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01003919943025473</v>
+        <v>0.01038926472991915</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.007938771018485584</v>
+        <v>0.00805496981174559</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01980195804730661</v>
+        <v>0.01980707278948194</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.02059951919390626</v>
+        <v>0.02125546113098307</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01974867562193433</v>
+        <v>0.01949387422647397</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01652584721442898</v>
+        <v>0.0161121942598173</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0142508248286171</v>
+        <v>0.01433802539332102</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01256073472094408</v>
+        <v>0.01280918811678162</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6304</v>
+        <v>5761</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6072</v>
+        <v>6019</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>19005</v>
+        <v>18515</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>15625</v>
+        <v>16283</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14646</v>
+        <v>15001</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28571</v>
+        <v>28316</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>24394</v>
+        <v>25392</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19432</v>
+        <v>18924</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19612</v>
+        <v>18859</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22295</v>
+        <v>20907</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9065</v>
+        <v>10218</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>39670</v>
+        <v>39049</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>35674</v>
+        <v>35251</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>35963</v>
+        <v>35417</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>54438</v>
+        <v>54410</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>49351</v>
+        <v>49703</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>42291</v>
+        <v>41872</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8466</v>
+        <v>8039</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>887</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>4943</v>
+        <v>4731</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7326</v>
+        <v>7458</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6524</v>
+        <v>6762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15694</v>
+        <v>16495</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10484</v>
+        <v>10297</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>9543</v>
+        <v>9139</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24040</v>
+        <v>24208</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18266</v>
+        <v>13410</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8749</v>
+        <v>9093</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18366</v>
+        <v>19079</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22975</v>
+        <v>22778</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21203</v>
+        <v>21940</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36723</v>
+        <v>36267</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29882</v>
+        <v>29546</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25175</v>
+        <v>26619</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3764</v>
+        <v>3595</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1107</v>
+        <v>1043</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3412</v>
+        <v>3579</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2208</v>
+        <v>2732</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5395</v>
+        <v>5389</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7714</v>
+        <v>8214</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8472</v>
+        <v>8545</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5183</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16454</v>
+        <v>15017</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9949</v>
+        <v>9863</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13659</v>
+        <v>14552</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12549</v>
+        <v>12859</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>22016</v>
+        <v>21128</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>10223</v>
+        <v>9334</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23328</v>
+        <v>24264</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>25781</v>
+        <v>27003</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18298</v>
+        <v>19463</v>
       </c>
     </row>
     <row r="16">
@@ -1834,28 +1834,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2047</v>
+        <v>2025</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3173</v>
+        <v>3218</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5935</v>
+        <v>5309</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2844</v>
+        <v>2655</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5399</v>
+        <v>5496</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7395</v>
+        <v>7807</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6308</v>
+        <v>5688</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8207</v>
+        <v>7898</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>7717</v>
+        <v>7963</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>12873</v>
+        <v>12875</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14554</v>
+        <v>15029</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21589</v>
+        <v>21804</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>14025</v>
+        <v>13909</v>
       </c>
       <c r="J19" s="6" t="n">
         <v>18596</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>24549</v>
+        <v>24648</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25494</v>
+        <v>25408</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>13415</v>
+        <v>14423</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10694</v>
+        <v>10802</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>37320</v>
+        <v>37042</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>42702</v>
+        <v>42183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>37679</v>
+        <v>37114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>70066</v>
+        <v>67529</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>61695</v>
+        <v>62582</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>51287</v>
+        <v>52355</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47814</v>
+        <v>48698</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>34225</v>
+        <v>35419</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>26732</v>
+        <v>27123</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>65643</v>
+        <v>65660</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>72889</v>
+        <v>75210</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>69649</v>
+        <v>68751</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>108175</v>
+        <v>105467</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>99008</v>
+        <v>99614</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>86595</v>
+        <v>88308</v>
       </c>
     </row>
     <row r="24">
